--- a/Xports/UD_French-ParisStories/VERB-no-obj.xlsx
+++ b/Xports/UD_French-ParisStories/VERB-no-obj.xlsx
@@ -16533,7 +16533,7 @@
         <v>2145</v>
       </c>
       <c r="E140" t="s">
-        <v>2686</v>
+        <v>2675</v>
       </c>
       <c r="F140" t="s">
         <v>1724</v>
@@ -16551,16 +16551,16 @@
         <v>2877</v>
       </c>
       <c r="K140" t="s">
-        <v>2675</v>
+        <v>2903</v>
       </c>
       <c r="L140" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="M140" t="s">
         <v>2873</v>
       </c>
       <c r="N140" t="s">
-        <v>2930</v>
+        <v>2873</v>
       </c>
       <c r="O140">
         <v>-1</v>
@@ -18440,7 +18440,7 @@
         <v>2873</v>
       </c>
       <c r="O180">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:15">
@@ -19145,7 +19145,7 @@
         <v>2929</v>
       </c>
       <c r="O195">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:15">
@@ -29302,7 +29302,7 @@
         <v>2327</v>
       </c>
       <c r="E412" t="s">
-        <v>2686</v>
+        <v>2682</v>
       </c>
       <c r="F412" t="s">
         <v>1857</v>
@@ -29329,7 +29329,7 @@
         <v>2873</v>
       </c>
       <c r="N412" t="s">
-        <v>2873</v>
+        <v>2930</v>
       </c>
       <c r="O412">
         <v>-1</v>
@@ -35630,7 +35630,7 @@
         <v>2930</v>
       </c>
       <c r="O546">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547" spans="1:15">
